--- a/Jogos_do_Dia/2023-10-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,13 +726,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>4.49</v>
+        <v>4.7</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -753,10 +753,10 @@
         <v>3.56</v>
       </c>
       <c r="S3" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -792,7 +792,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -804,89 +804,89 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stabæk</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>SD Huesca</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N4" t="n">
         <v>2.2</v>
       </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.1</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AB4" t="n">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="5">
@@ -926,13 +926,13 @@
         <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.47</v>
@@ -953,10 +953,10 @@
         <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -992,7 +992,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1004,89 +1004,89 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
+          <t>Stabæk</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SD Huesca</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.06</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>2.37</v>
+        <v>3.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>1.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.36</v>
       </c>
-      <c r="X6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.02</v>
-      </c>
       <c r="AC6" t="n">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="7">
@@ -1108,85 +1108,85 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.83</v>
+        <v>1.98</v>
       </c>
       <c r="K7" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="R7" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z7" t="n">
         <v>1.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.25</v>
       </c>
       <c r="AA7" t="n">
         <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="8">
@@ -1226,13 +1226,13 @@
         <v>7.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="K8" t="n">
-        <v>5.35</v>
+        <v>4.65</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M8" t="n">
         <v>1.31</v>
@@ -1253,10 +1253,10 @@
         <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1326,13 +1326,13 @@
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="K9" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.36</v>
@@ -1353,10 +1353,10 @@
         <v>3.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1426,13 +1426,13 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="K10" t="n">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1453,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="S10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.75</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.95</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -1508,85 +1508,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.12</v>
+        <v>2.74</v>
       </c>
       <c r="K11" t="n">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.28</v>
+        <v>2.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="R11" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.32</v>
       </c>
-      <c r="X11" t="n">
-        <v>1.28</v>
-      </c>
       <c r="Y11" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AA11" t="n">
         <v>1</v>
       </c>
       <c r="AB11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC11" t="n">
         <v>1.43</v>
       </c>
-      <c r="AC11" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AD11" t="n">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="12">
@@ -1626,13 +1626,13 @@
         <v>2.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="M12" t="n">
         <v>1.4</v>
@@ -1653,10 +1653,10 @@
         <v>3.4</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
         <v>1.73</v>
@@ -1726,13 +1726,13 @@
         <v>3.46</v>
       </c>
       <c r="J13" t="n">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="K13" t="n">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="M13" t="n">
         <v>1.46</v>
@@ -1753,7 +1753,7 @@
         <v>2.75</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
@@ -1826,13 +1826,13 @@
         <v>4.03</v>
       </c>
       <c r="J14" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="K14" t="n">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="L14" t="n">
-        <v>3.16</v>
+        <v>2.98</v>
       </c>
       <c r="M14" t="n">
         <v>1.57</v>
@@ -1847,16 +1847,16 @@
         <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.75</v>
+        <v>2.51</v>
       </c>
       <c r="T14" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -1908,31 +1908,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>New York RB</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.33</v>
@@ -1941,52 +1941,52 @@
         <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R15" t="n">
         <v>4.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X15" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="Y15" t="n">
         <v>2.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.67</v>
+        <v>1.33</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.9</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="16">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>New York RB</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="K16" t="n">
-        <v>3.32</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.33</v>
@@ -2041,22 +2041,22 @@
         <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="n">
         <v>1.22</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="T16" t="n">
-        <v>2.35</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
         <v>1.62</v>
@@ -2065,28 +2065,28 @@
         <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="X16" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17">
@@ -2108,85 +2108,85 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Atlanta United FC</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="L17" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R17" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="T17" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="18">
@@ -2208,85 +2208,85 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Atlanta United FC</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V18" t="n">
         <v>2.38</v>
       </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="X18" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.27</v>
+        <v>1.07</v>
       </c>
       <c r="AB18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC18" t="n">
         <v>1.31</v>
       </c>
-      <c r="AC18" t="n">
-        <v>1.03</v>
-      </c>
       <c r="AD18" t="n">
-        <v>2.34</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="19">
@@ -2326,13 +2326,13 @@
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="M19" t="n">
         <v>1.36</v>
@@ -2387,6 +2387,706 @@
       </c>
       <c r="AD19" t="n">
         <v>2.64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.11</v>
       </c>
     </row>
   </sheetData>
